--- a/doc/02_機能一覧_ひろし.xlsx
+++ b/doc/02_機能一覧_ひろし.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7978E91B-5AC3-4A54-9E89-921131A0003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2163677-731D-4335-895D-15E87504E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10812" yWindow="0" windowWidth="12324" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -227,17 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LifeServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cloth.jspを表示する</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目の読込</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -342,10 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LoginServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.jspを表示する</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
@@ -417,32 +415,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CosulServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ConsulServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問題文を全てデータ取得処理あり。
 解答はセッションスコープへ保存</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト結果データを取得処理testResult.jspを表示。</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -592,6 +566,44 @@
     <rPh sb="9" eb="11">
       <t>ホゾン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果データを取得処理testResult.jspを表示。GETでtestStart.jspを表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BookLifeServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>life.jspを表示する</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConsulLifeServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1016,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1134,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1149,60 +1161,60 @@
     <row r="10" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1243,7 +1255,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -1252,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1269,20 +1281,20 @@
     <row r="17" spans="2:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1299,100 +1311,100 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1406,23 +1418,23 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1445,13 +1457,13 @@
         <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1462,16 +1474,16 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1487,60 +1499,60 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I32" s="2"/>
     </row>
